--- a/玩家反馈Bug去重工具/cleandata/0115比较好的完全测试去重样本_v1.xlsx
+++ b/玩家反馈Bug去重工具/cleandata/0115比较好的完全测试去重样本_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Final_Result" sheetId="1" r:id="rId1"/>
@@ -2085,322 +2085,322 @@
     <t>掉下来后视角模糊 | 建筑人物穿模了 | 刚下飞机是有突然性的画面放大或缩小。 | 图示位置的道路有穿模希望可以尽快修复 | 穿模的能不能搞个正常一些的不穿模的 | 坐在飞机上，时装穿模有点严重，优化优化，然后刚上飞机，任务曝光严重，脸部和伪人一样 | 衣服卡穿模了 | 在坐飞机回去的途中似乎视角穿模了 | 我求你们了把这个脚模修一下吧 | 穿模，严重影响视觉感受看着很不舒服 | 跑步姿势改成正式服的行嘛，有点别扭 | 飞行载具视角</t>
   </si>
   <si>
+    <t>遗迹岛屿第二只boss卡地下去了，无法冲刺 | 芒刺卡怪了 | 卡怪没有任务进度 | 传送营地雕像时会进入雕像下面卡住，无法脱离 | 传送到营地雕像的时候会传送到地面下，直接卡住了 | 雪线围猎BOOS卡着走不动 | 雪线围猎好多BOOS都会卡身位原地踏步 | 第四只boss集合等倒计时结束自动传送的时候传送失败，被空气墙挡在boss外头了 | 拉火刀撞到营地雕像周围的花丛时  无限回弹卡顿 | 芒刺，卡怪了，且任务栏没有进度</t>
+  </si>
+  <si>
+    <t>芒刺，卡怪了，且任务栏没有进度 | 传送营地雕像时会进入雕像下面卡住，无法脱离 | 雪线围猎好多BOOS都会卡身位原地踏步 | 第四只boss集合等倒计时结束自动传送的时候传送失败，被空气墙挡在boss外头了 | 遗迹岛屿第二只boss卡地下去了，无法冲刺 | 拉火刀撞到营地雕像周围的花丛时 无限回弹卡顿 | 拉火刀撞到营地雕像周围的花丛时  无限回弹卡顿</t>
+  </si>
+  <si>
+    <t>秘密起点副本加上集合点 | 医院副本站圈太久 | 医院这个副本在这里会卡。 | 莱文市医院副本    集合点不能召集 | 希望能多出点像《韦雪风雪》这种带有机制的日常副本，好久没出新的日常副本了吧？ | 希望每个副本每个集合地点都能设置快速集合，有队友挂机的情况下得重开 | 医院的这个副本，希望也有队友召集功能，尤其是队友卡了，很麻烦。</t>
+  </si>
+  <si>
+    <t>医院副本站圈太久 | 莱文市医院副本    集合点不能召集 | 秘密起点副本加上集合点 | 希望能多出点像《韦雪风雪》这种带有机制的日常副本，好久没出新的日常副本了吧？ | 希望每个副本每个集合地点都能设置快速集合，有队友挂机的情况下得重开 | 医院这个副本在这里会卡。 | 医院的这个副本，希望也有队友召集功能，尤其是队友卡了，很麻烦。</t>
+  </si>
+  <si>
+    <t>队伍面板的角色再生花苞显示异常 | 角色模型异常 | 人物脸上全是蓝色建模痕迹 | 角色模型丢失，人物没有模型， | 联盟暂时也没问题 就是这个人物模型有时候会少显示 | 人物角色脸特别黑 | 动画bug出现两个角色还都没有模型 | NPC建模皮肤太黑了，尤其是晚上 | 开车有概率丢失人物模型 | 远点人物建模模糊 | 开镜人物会消失，直接建模没了只剩下准心了</t>
+  </si>
+  <si>
+    <t>开镜人物会消失，直接建模没了只剩下准心了 | NPC建模皮肤太黑了，尤其是晚上 | 队伍面板的角色再生花苞显示异常 | 远点人物建模模糊 | 角色模型异常 | 角色模型丢失，人物没有模型，</t>
+  </si>
+  <si>
+    <t>边境农场里的水源丢失 | 边境农场色调太亮，天空没有颜色 | 农村的土地消失 | 边境农场水塘设计问题 | 秋日森林的植被有点少，看着光秃秃的</t>
+  </si>
+  <si>
+    <t>边境农场水塘设计问题 | 边境农场色调太亮，天空没有颜色 | 农村的土地消失 | 秋日森林的植被有点少，看着光秃秃的</t>
+  </si>
+  <si>
+    <t>宝石山湾这颗巨大樱花树这依旧有贴图错误，只有从这个角度会显示大黑块。 | 宝石山湾地图显示错误，出现黑屏 | 远处山脉显示出问题 | 这个阳光和阴影的交界处进去这个草丛后就出不来了 | 画面显示异常，山坡上的花草就像海浪在抖</t>
+  </si>
+  <si>
+    <t>游戏画风太别扭了 | 角色动作变慢，但实际运动距离不变 | 人物动作还是不要改了，太僵硬了 | 人物站在雷达下面，当雷达角度靠近角色的时候会抽风，左摇右摆一小会 | 角色爬楼梯姿势不够自然，两腿叉开的太大 | 人物奔跑时候腿部有时候扭曲变形</t>
+  </si>
+  <si>
+    <t>捷卡德林南站地图没有空气墙了，可以翻出来逛到地图各个地方，走到极限会掉入虚空 | 地图空中出现异物 | 荒土旷野车厢穿模 | 生存禁区，频繁卡顿车厢穿模，人物掉落到车厢下面</t>
+  </si>
+  <si>
+    <t>捷卡德林南站地图没有空气墙了，可以翻出来逛到地图各个地方，走到极限会掉入虚空 | 地图空中出现异物 | 生存禁区，频繁卡顿车厢穿模，人物掉落到车厢下面</t>
+  </si>
+  <si>
+    <t>游戏中，无人机图标消失。 | 营地打靶游戏靶场npc不在屋顶，设计开始参与者也不在屋顶，射击时有影响 | 打特训时敌人隐身了看不着，却能打我 | 营地靶场，人物重叠</t>
+  </si>
+  <si>
+    <t>家具悬空是什么鬼呀 | 可以优化一下家具吗？我的猫没有眼睛了。，它的毛发也太光滑了吧。跟没有毛一样。 | 露天电影家具坐下后起不来了，可以用武器技能。。。</t>
+  </si>
+  <si>
+    <t>莫洛韦城堡告示牌模型异常 | 庄园围墙显示异常 | 庄园外观，海浪翻涌墙，深海召唤门系列，图像丢失，只显示上端 | 很明显的大范围异常</t>
+  </si>
+  <si>
+    <t>从设置退出后会按键消失，游戏也会卡住 | 左侧点完礼包再点时尚就卡画面，左侧字还乱在一起了 | 如果返回桌面容易出现异常卡死 | 改完操作布局会卡按键 | 生存辅助仪只要点关闭或者点击空白处之后关闭都是卡在这里不动的，我得大退才能恢复页面 | 卡住脱离后,屏幕会卡住,没有按键 | 换时装界面卡顿，有时有白光很蓝光 | 外观时装切换太卡了，卡到穿模，换个时装卡好久</t>
+  </si>
+  <si>
+    <t>生存辅助仪只要点关闭或者点击空白处之后关闭都是卡在这里不动的，我得大退才能恢复页面 | 外观时装切换太卡了，卡到穿模，换个时装卡好久</t>
+  </si>
+  <si>
+    <t>你吓到我啦，你们知不知道 | 什么鬼？ | 我想知道这是什么个品种，人不像人鬼不像鬼的</t>
+  </si>
+  <si>
+    <t>你吓到我啦，你们知不知道 | 我想知道这是什么个品种，人不像人鬼不像鬼的</t>
+  </si>
+  <si>
+    <t>新手指引任务无法完成。 | 未收到发放的信用点奖励和需要做的任务 | 我的等级已经是满级.但并没有触发任务完成 | 升级技能要求已经完成，没有进行下一步 | 礼包一直提示，但是实际上没有什么奖励需领取</t>
+  </si>
+  <si>
+    <t>新手指引任务无法完成。 | 未收到发放的信用点奖励和需要做的任务 | 我的等级已经是满级.但并没有触发任务完成 | 礼包一直提示，但是实际上没有什么奖励需领取</t>
+  </si>
+  <si>
+    <t>花车转视角会隐身 | 骑摩托车开阴影的话有时候人物会消失 | 下午打傀儡迷途的时候这个车前面走一段路，停下后后面的车才走，然后停下前面走，一共持续了7分钟半才到终点</t>
+  </si>
+  <si>
+    <t>建议加强狙击手的咆哮 | 现在狙击手的电狙太弱了，必须回调 | 建议一些武器特效可以加重一些比如12酸弓的酸雾</t>
+  </si>
+  <si>
+    <t>进入蓝图编辑，给任务直接传送到建筑中间卡层了，可以设置到庄园门口 | 聊天频道车队的图标显示到庄园助手上去了 | 开了会员主页面没有庄园助手 | 庄园建造按钮没了</t>
+  </si>
+  <si>
+    <t>手机机型iqooneo10一直闪退，优化还要加强 | 跑动过程中画面突然变绿.并且不能进行任何操作 | 进入外观界面时会闪屏，由于是动态发生暂时无法提供截图</t>
+  </si>
+  <si>
+    <t>万国酒店副本内严重卡顿，任何操作都严重卡顿 | 联盟行动遗迹岛屿打的时候巨卡所有人都卡 | 装备栏武器切换十分卡顿，按好多次才反应一次，在副本里没有问题，打完出来就卡卡的 | 副本内很卡，打出子弹，不出伤害， | 在打到联盟最后一个boss后卡得非常厉害，基本打不出伤害，之后打普通联盟还是会很卡 | 万国酒店副本进行的时候，超级卡顿，切不出枪，打不出伤害， | 联盟组队开启战斗就很卡，延迟很高，进去也卡卡的 | 在悬赏狩猎副本切武器好卡，要半天才能切过来，一进副本好像没有网络一样，一出来就好了 | 联盟卡死了打都打不了早点修一下吧</t>
+  </si>
+  <si>
+    <t>贴图与周围环境割裂 | 贴图不停闪烁 | 贴图空缺 | 远距离模型贴图异常 | 天空贴图丢失</t>
+  </si>
+  <si>
+    <t>动态壁纸会变成红绿色格子，如静雪壁纸 | 同样等级的墙体，窗户与壁纸，显示效果不一， | 静雪密林系列壁纸，图像成马赛克</t>
+  </si>
+  <si>
+    <t>这全黑啥原因，重进还是这样 | 打个副本在摸瞎，全程都是黑黑黑，太影响体验了，画面就像隔壁游戏 | 深渊禁区：BOSS前打小怪的时候 一片都是黑的 怪也是黑的 | 画面过黑，影响视力，任务看不清</t>
+  </si>
+  <si>
     <t>游戏太卡了 游玩体验太差了 | 画面都卡成这个样了 玩的时候一卡一卡的。。。。。 | 这都能卡？佛了 | 非常的卡顿，连副本都退不出去了，影响游戏体验 | 游戏过程严重卡顿 | 今天是服务器维修还是什么情况，卡飞起来了，流量网络都卡 | 服务器太卡了，经常反复回退 | 太卡顿了 | 都卡成这样了还玩个蛋啊 | 666，还卡在这里，还修4天了还没修好。 | 为什么老是莫名其妙的卡一下啊？</t>
   </si>
   <si>
-    <t>队伍面板的角色再生花苞显示异常 | 角色模型异常 | 人物脸上全是蓝色建模痕迹 | 角色模型丢失，人物没有模型， | 联盟暂时也没问题 就是这个人物模型有时候会少显示 | 人物角色脸特别黑 | 动画bug出现两个角色还都没有模型 | NPC建模皮肤太黑了，尤其是晚上 | 开车有概率丢失人物模型 | 远点人物建模模糊 | 开镜人物会消失，直接建模没了只剩下准心了</t>
-  </si>
-  <si>
-    <t>开镜人物会消失，直接建模没了只剩下准心了 | NPC建模皮肤太黑了，尤其是晚上 | 队伍面板的角色再生花苞显示异常 | 远点人物建模模糊 | 角色模型异常 | 角色模型丢失，人物没有模型，</t>
-  </si>
-  <si>
-    <t>遗迹岛屿第二只boss卡地下去了，无法冲刺 | 芒刺卡怪了 | 卡怪没有任务进度 | 传送营地雕像时会进入雕像下面卡住，无法脱离 | 传送到营地雕像的时候会传送到地面下，直接卡住了 | 雪线围猎BOOS卡着走不动 | 雪线围猎好多BOOS都会卡身位原地踏步 | 第四只boss集合等倒计时结束自动传送的时候传送失败，被空气墙挡在boss外头了 | 拉火刀撞到营地雕像周围的花丛时  无限回弹卡顿 | 芒刺，卡怪了，且任务栏没有进度</t>
-  </si>
-  <si>
-    <t>芒刺，卡怪了，且任务栏没有进度 | 传送营地雕像时会进入雕像下面卡住，无法脱离 | 雪线围猎好多BOOS都会卡身位原地踏步 | 第四只boss集合等倒计时结束自动传送的时候传送失败，被空气墙挡在boss外头了 | 遗迹岛屿第二只boss卡地下去了，无法冲刺 | 拉火刀撞到营地雕像周围的花丛时 无限回弹卡顿 | 拉火刀撞到营地雕像周围的花丛时  无限回弹卡顿</t>
-  </si>
-  <si>
-    <t>万国酒店副本内严重卡顿，任何操作都严重卡顿 | 联盟行动遗迹岛屿打的时候巨卡所有人都卡 | 装备栏武器切换十分卡顿，按好多次才反应一次，在副本里没有问题，打完出来就卡卡的 | 副本内很卡，打出子弹，不出伤害， | 在打到联盟最后一个boss后卡得非常厉害，基本打不出伤害，之后打普通联盟还是会很卡 | 万国酒店副本进行的时候，超级卡顿，切不出枪，打不出伤害， | 联盟组队开启战斗就很卡，延迟很高，进去也卡卡的 | 在悬赏狩猎副本切武器好卡，要半天才能切过来，一进副本好像没有网络一样，一出来就好了 | 联盟卡死了打都打不了早点修一下吧</t>
-  </si>
-  <si>
-    <t>从设置退出后会按键消失，游戏也会卡住 | 左侧点完礼包再点时尚就卡画面，左侧字还乱在一起了 | 如果返回桌面容易出现异常卡死 | 改完操作布局会卡按键 | 生存辅助仪只要点关闭或者点击空白处之后关闭都是卡在这里不动的，我得大退才能恢复页面 | 卡住脱离后,屏幕会卡住,没有按键 | 换时装界面卡顿，有时有白光很蓝光 | 外观时装切换太卡了，卡到穿模，换个时装卡好久</t>
-  </si>
-  <si>
-    <t>生存辅助仪只要点关闭或者点击空白处之后关闭都是卡在这里不动的，我得大退才能恢复页面 | 外观时装切换太卡了，卡到穿模，换个时装卡好久</t>
+    <t>核心酸炮，炸出去的炮在飞行期间会消失。只有爆炸后才能看到效果 | 酸炮发射后子弹会消失，但是到达目标后还是会显示出来 | 酸雨重炮核心装在火箭筒上看不见分裂子弹 | 深潜重炮的异变核芯，酸雨重炮的弹道特效丢失</t>
+  </si>
+  <si>
+    <t>玩家也不显示，就显示一个头，都看不见人 | NPC椅子缺失 | NPC没有显示出全貌，只剩下一个头</t>
   </si>
   <si>
     <t>账号更新和切换账号和那个定向消息推送，这两个页面有重叠 | 切换旧界面，重新登录好几遍才生效 | 从设置出来后，什么按钮也没有了，反馈是突然出现的，而且设置的那个推送跟其他按钮重叠了 | 打开设置，调整了一些自定义的页面按钮，返回线路造成所有，按钮消失 | 设置退出来按键又全部没了 | 在设置里面调整按键之后退出就会有一个不显示游戏摁键的bug | 调整键位后所有键位都会消失，只能重启</t>
   </si>
   <si>
-    <t>秘密起点副本加上集合点 | 医院副本站圈太久 | 医院这个副本在这里会卡。 | 莱文市医院副本    集合点不能召集 | 希望能多出点像《韦雪风雪》这种带有机制的日常副本，好久没出新的日常副本了吧？ | 希望每个副本每个集合地点都能设置快速集合，有队友挂机的情况下得重开 | 医院的这个副本，希望也有队友召集功能，尤其是队友卡了，很麻烦。</t>
-  </si>
-  <si>
-    <t>医院副本站圈太久 | 莱文市医院副本    集合点不能召集 | 秘密起点副本加上集合点 | 希望能多出点像《韦雪风雪》这种带有机制的日常副本，好久没出新的日常副本了吧？ | 希望每个副本每个集合地点都能设置快速集合，有队友挂机的情况下得重开 | 医院这个副本在这里会卡。 | 医院的这个副本，希望也有队友召集功能，尤其是队友卡了，很麻烦。</t>
-  </si>
-  <si>
-    <t>游戏画风太别扭了 | 角色动作变慢，但实际运动距离不变 | 人物动作还是不要改了，太僵硬了 | 人物站在雷达下面，当雷达角度靠近角色的时候会抽风，左摇右摆一小会 | 角色爬楼梯姿势不够自然，两腿叉开的太大 | 人物奔跑时候腿部有时候扭曲变形</t>
+    <t>释放弹药箱的时候总是不显示目标放的时候只能放在脚下不能摆放位置 | 家具：军火箱移动无法放置。。。 | 看不见弹药箱预设点 | 放置弹药箱时没有建模</t>
+  </si>
+  <si>
+    <t>图片与显示的动物不符合，且数量也不一样 | 繁育的动物贴图跟名字显示错误 | 哈提贴图错误</t>
   </si>
   <si>
     <t>捏脸游戏里经常出不来，而且游戏内角色的妆比起捏脸界面重太多。没有界面界面好看，到了游戏里就变丑了。有点不太一样的感觉。 | 切换捏脸无用 | 捏完脸无法从第一视角控制角色移动 | 家具映妆台没有捏脸功能，坐下后再站起来方向键失灵，只能朝着一个方向走 | 人物有时候捏脸会消失，变成初始脸 | 捏脸界面点开后异常显示</t>
   </si>
   <si>
+    <t>这个问题还是无法修复吗？ | 切个后台回来就这样了，麻烦修一下 | 这个怎么办</t>
+  </si>
+  <si>
+    <t>时装萌兔神探bug，角色穿上时装不显示，全身透明 | 星际舰长这套时装有异常发光点，转动角度就会出现更多</t>
+  </si>
+  <si>
+    <t>心跳禁区一堆建筑全都卡身位，用流量都加载不出来建筑一直卡身位 | 迷失乐园打完坐飞机走，卡在飞机上了，然后卡在飞机上了，又卡回副本里，然后又闪现出来外面副本门口了 | 这个位置人物从市中心出来就在这卡住了，动一下就闪回来</t>
+  </si>
+  <si>
+    <t>黑珍珠区的悬空萝卜，不合理 | 这个草是不是有点不合常理了</t>
+  </si>
+  <si>
+    <t>拿到钥匙要开门的时候门的贴图没有显示出来 | 这是什么门呀怎么按都按不开，那需要输密码吗 | 这个可以改一下改成那种互动可以打开门的那种</t>
+  </si>
+  <si>
+    <t>不能砍树 | 砍树时图标不切换 | 大河区等不明打完有些树木没有办法交互砍树</t>
+  </si>
+  <si>
+    <t>交易之城核心筛选，筛选完以后显示不正确 | 这个交易箱子错位是我的问题嘛</t>
+  </si>
+  <si>
+    <t>在农田里种植草莓提醒需要再已开垦的土地种植？ | 纯净草莓苗种不了 | 移栽的作物无法种回地里</t>
+  </si>
+  <si>
+    <t>更换战术装备，按钮图标不会变 | 切换武器栏设置的tab键，但是无法并不能打开武器栏，而是打开投掷物配置栏 | 武器栏改回去</t>
+  </si>
+  <si>
+    <t>酒店拿道具的尸体卡在里面拿不到 | 万国酒店医生被压拿不到血清触发不了boss</t>
+  </si>
+  <si>
+    <t>门隐形 | 玻璃门</t>
+  </si>
+  <si>
+    <t>迷失乐园小鸭船视角异常 | 迷失乐园的鸭子船在原地打转不前进 | 迷失乐园：鸭鸭船有人在上面的时候会一直转圈圈 水流建模不对 | 迷失乐园第一个鳄鱼Boss打完之后，鸭子船刚开始会乱转 | 迷失乐园打完鳄鱼上皮划艇在原地摇摆啊，不会走，一直在转圈</t>
+  </si>
+  <si>
+    <t>在禁区尸潮区域，放置建造类激光塔时，激光塔不显示。 | 秘密工厂因为符师无法开盾牌，无法通过水柱冲击。</t>
+  </si>
+  <si>
+    <t>PC端绝命赏单红水湖场景全白，完全无视野 | 赏单红水湖远景全是白色一片，返回营地后营地曝光了，然后到其他地图也是曝光一片 | 赏单红水湖进去一片白茫茫</t>
+  </si>
+  <si>
+    <t>密斯卡大学 两边没有东西遮挡也过不去  密斯卡大学：最后小女孩npc从二楼直接漂移到一楼 | 密斯卡大学的围墙的柱子全部消失，但碰撞体积还在</t>
+  </si>
+  <si>
+    <t>没有寂海沉舟副本 | 寂海沉舟这个本是不是被删了呀哈哈哈，测试让我们去，没这个本啊 | 寂海沉舟这个副本找不到啊</t>
+  </si>
+  <si>
+    <t>画质为极质模式下，有概率会碰到如图所示的状况。 | 高清画质无论哪个画质，营地喷泉的水，是没有的。</t>
+  </si>
+  <si>
+    <t>站在营地雕像附近这个草上会站不稳，出现循环下落的情况 | 营地雕像腿卡在里面不美观 | 营地雕塑的草走进去会反复弹</t>
+  </si>
+  <si>
     <t>光线太暗了 | 光影半个黑屏看不见 | 太黑了，根本看不清 | 晚上太黑了啥都看不见 | 太暗了什么都看不清</t>
   </si>
   <si>
-    <t>边境农场里的水源丢失 | 边境农场色调太亮，天空没有颜色 | 农村的土地消失 | 边境农场水塘设计问题 | 秋日森林的植被有点少，看着光秃秃的</t>
-  </si>
-  <si>
-    <t>边境农场水塘设计问题 | 边境农场色调太亮，天空没有颜色 | 农村的土地消失 | 秋日森林的植被有点少，看着光秃秃的</t>
-  </si>
-  <si>
-    <t>宝石山湾这颗巨大樱花树这依旧有贴图错误，只有从这个角度会显示大黑块。 | 宝石山湾地图显示错误，出现黑屏 | 远处山脉显示出问题 | 这个阳光和阴影的交界处进去这个草丛后就出不来了 | 画面显示异常，山坡上的花草就像海浪在抖</t>
-  </si>
-  <si>
-    <t>贴图与周围环境割裂 | 贴图不停闪烁 | 贴图空缺 | 远距离模型贴图异常 | 天空贴图丢失</t>
-  </si>
-  <si>
-    <t>新手指引任务无法完成。 | 未收到发放的信用点奖励和需要做的任务 | 我的等级已经是满级.但并没有触发任务完成 | 升级技能要求已经完成，没有进行下一步 | 礼包一直提示，但是实际上没有什么奖励需领取</t>
-  </si>
-  <si>
-    <t>新手指引任务无法完成。 | 未收到发放的信用点奖励和需要做的任务 | 我的等级已经是满级.但并没有触发任务完成 | 礼包一直提示，但是实际上没有什么奖励需领取</t>
-  </si>
-  <si>
-    <t>迷失乐园小鸭船视角异常 | 迷失乐园的鸭子船在原地打转不前进 | 迷失乐园：鸭鸭船有人在上面的时候会一直转圈圈 水流建模不对 | 迷失乐园第一个鳄鱼Boss打完之后，鸭子船刚开始会乱转 | 迷失乐园打完鳄鱼上皮划艇在原地摇摆啊，不会走，一直在转圈</t>
-  </si>
-  <si>
-    <t>游戏中，无人机图标消失。 | 营地打靶游戏靶场npc不在屋顶，设计开始参与者也不在屋顶，射击时有影响 | 打特训时敌人隐身了看不着，却能打我 | 营地靶场，人物重叠</t>
-  </si>
-  <si>
-    <t>核心酸炮，炸出去的炮在飞行期间会消失。只有爆炸后才能看到效果 | 酸炮发射后子弹会消失，但是到达目标后还是会显示出来 | 酸雨重炮核心装在火箭筒上看不见分裂子弹 | 深潜重炮的异变核芯，酸雨重炮的弹道特效丢失</t>
-  </si>
-  <si>
-    <t>释放弹药箱的时候总是不显示目标放的时候只能放在脚下不能摆放位置 | 家具：军火箱移动无法放置。。。 | 看不见弹药箱预设点 | 放置弹药箱时没有建模</t>
+    <t>冰渊典藏裙摆太僵硬 | 仙履奇谭典藏裙摆贴腿了，改回原来蓬蓬的样子，贴腿好丑</t>
+  </si>
+  <si>
+    <t>蓝潮颜色有问题，不同角度去看会出现黑色和蓝色 | 蓝潮颜色贴图问题，不同角度会显示不同颜色，在蓝色黑色和蓝色黑色之间切换 | 贴图颜色错误，全白了</t>
+  </si>
+  <si>
+    <t>联盟副本没有减免 | 联盟行动希望测试服里面自选副本地图做满任务</t>
+  </si>
+  <si>
+    <t>此处场景未渲染成功，出现了一块绿色的斑，可以随着人物的走动而转变方向。 | 天空颜色异常。围着附近形成一个圆形。的绿色阴影</t>
+  </si>
+  <si>
+    <t>墨洛维城堡副本公主墓室的门模型变白 | 墨洛维城堡二阶段boss铁门集合点的门显示异常 | 墨洛维城堡的副本第一个小boss这里的门是白色的，有问题</t>
+  </si>
+  <si>
+    <t>在阴天没有太阳的情况下居然还显示出影子，不合逻辑 | 路灯下面没有影子 | 在路灯下没有显示出影子，而且灯的亮度太低了</t>
+  </si>
+  <si>
+    <t>明显的掉帧严重 | 游戏有明显掉帧，玩多了会头晕，正式服玩多久都不晕 | 登录游戏后偶尔会出现显示异常，场景昏暗无灯光</t>
+  </si>
+  <si>
+    <t>营地无法基建 | 营地雕像绿化带颜色异常</t>
+  </si>
+  <si>
+    <t>哈提没有交互 任务做不了 | 深潜之行哈提没有交互按钮 | 任务显示和哈提汇合，但是到任务地点后没法进行下一步任务</t>
+  </si>
+  <si>
+    <t>希望能保留我的测试资格，这轮任务一个都做不了了 | 希望一些特殊模式可以对测试服开放给玩家提供寻找建议跟做任务的空间</t>
+  </si>
+  <si>
+    <t>副本环境太暗 | 副本太黑了，很影响视力，打了3个本就视觉疲劳了 | 副本里面太黑了 | 副本显示白天其实是夜晚</t>
+  </si>
+  <si>
+    <t>打本也卡住进不去 | 打本好卡 | 打完黑珍珠开不了别的本在里面卡的要死</t>
+  </si>
+  <si>
+    <t>PVE战斗音乐BUG还不修复？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？ | 从正式服带到测试服几个月了双重战斗音乐还不修复？？？？？？？？？梆梆梆很好听？？？？恶心吐了 | PVE双重战斗音乐BUG还不修复？？？？？？？？？几个月了，怎么能这么恶心人，战斗音乐这么重要的东西能几个月不修复？？？？？都吃干饭的？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？ | 只要打怪必定出现双重战斗音乐bug</t>
+  </si>
+  <si>
+    <t>典藏时装星途奇想bug，衣服颜色混乱 | 时装显示错误</t>
+  </si>
+  <si>
+    <t>建议增加畜牧圈的等级 扩大畜牧圈容量 或者增多可摆放数量 | 建议更高级的地图增加可采集的作物，目前出来的作物都是在6级地图以下的</t>
+  </si>
+  <si>
+    <t>轮盘切枪的轮盘设置缩小之后退出还是会变大 | 为啥把轮盘切枪下了，感觉挺好的呀</t>
+  </si>
+  <si>
+    <t>车队任务做完了，一直显示还有没做完的，地图上小点 | 赏单地图任务面板没有路线指引找不到npc，任务面板新任务刷新延迟</t>
   </si>
   <si>
     <t>黑珍珠城堡场景过暗 | 黑珍珠城堡太暗了，不然留给给个荧光棒用，要不然就搞亮一些，眼都瞎了 | 黑珍珠城堡整体房间内光线过于昏暗 | 黑珍珠城堡，，干嘛这还要我补充信息啊，看图不就好了吗</t>
   </si>
   <si>
-    <t>这全黑啥原因，重进还是这样 | 打个副本在摸瞎，全程都是黑黑黑，太影响体验了，画面就像隔壁游戏 | 深渊禁区：BOSS前打小怪的时候 一片都是黑的 怪也是黑的 | 画面过黑，影响视力，任务看不清</t>
+    <t>666水变成方块水了，这bug啥时候修，而且那个小黄鸭的船一直在原地打转，不往前走，拖慢打本进度 | 这连怪都打不了都不扣血了这难道不是bug吗</t>
+  </si>
+  <si>
+    <t>在禁区做任务开箱子 直接卡成火彩人还是荧光的 画面一片漆黑什么也看不见 | 来交小灯任务就一直卡在这里了</t>
+  </si>
+  <si>
+    <t>建议副本增加耐久减免选项，对于配置低的人来说没有耐久减免打一次副本要消耗大量耐久，得不偿失 | 副本没有耐久减免，使用装备直接掉耐久， | 副本耐久掉的太快</t>
+  </si>
+  <si>
+    <t>酒店周本这个电梯是透明的。，可以再稍微优化一下。 | 哦，不对，这个万国酒店坐电梯的时候，不论是去哪个楼层走哪里都是电梯地板和墙壁有时候会透明 | 在打万国酒店的时候，坐电梯从2楼到3楼厨房的时候，电梯的地板会透明，建议调整</t>
+  </si>
+  <si>
+    <t>迷失乐园副本中，船翻了导致无法通关。 | 迷失乐园讨伐，鸭子船会自己原地转圈！打完副本后，飞机交通堵塞，得等几分钟才出副本</t>
+  </si>
+  <si>
+    <t>拉火刀，开枪声音丢失，一点声音都没 | 火刀开了之后一直停不下来，切枪延迟太大</t>
+  </si>
+  <si>
+    <t>无法发送信息 | 语音聊天失效，无法听取</t>
   </si>
   <si>
     <t>一到晚上画面整体变暗.荧光棒找不到在哪. | 很暗，需要根据实际亮度而不是游戏昼夜来判断荧光棒开启 | 晚上画面太黑了.并且找不到荧光棒位置 | 游戏时间到了晚上，随身荧光棒的照亮范围太小了，看不见画面了</t>
   </si>
   <si>
-    <t>PVE战斗音乐BUG还不修复？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？ | 从正式服带到测试服几个月了双重战斗音乐还不修复？？？？？？？？？梆梆梆很好听？？？？恶心吐了 | PVE双重战斗音乐BUG还不修复？？？？？？？？？几个月了，怎么能这么恶心人，战斗音乐这么重要的东西能几个月不修复？？？？？都吃干饭的？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？？ | 只要打怪必定出现双重战斗音乐bug</t>
-  </si>
-  <si>
-    <t>莫洛韦城堡告示牌模型异常 | 庄园围墙显示异常 | 庄园外观，海浪翻涌墙，深海召唤门系列，图像丢失，只显示上端 | 很明显的大范围异常</t>
-  </si>
-  <si>
-    <t>进入蓝图编辑，给任务直接传送到建筑中间卡层了，可以设置到庄园门口 | 聊天频道车队的图标显示到庄园助手上去了 | 开了会员主页面没有庄园助手 | 庄园建造按钮没了</t>
-  </si>
-  <si>
-    <t>捷卡德林南站地图没有空气墙了，可以翻出来逛到地图各个地方，走到极限会掉入虚空 | 地图空中出现异物 | 荒土旷野车厢穿模 | 生存禁区，频繁卡顿车厢穿模，人物掉落到车厢下面</t>
-  </si>
-  <si>
-    <t>捷卡德林南站地图没有空气墙了，可以翻出来逛到地图各个地方，走到极限会掉入虚空 | 地图空中出现异物 | 生存禁区，频繁卡顿车厢穿模，人物掉落到车厢下面</t>
-  </si>
-  <si>
-    <t>副本环境太暗 | 副本太黑了，很影响视力，打了3个本就视觉疲劳了 | 副本里面太黑了 | 副本显示白天其实是夜晚</t>
-  </si>
-  <si>
-    <t>建议加强狙击手的咆哮 | 现在狙击手的电狙太弱了，必须回调 | 建议一些武器特效可以加重一些比如12酸弓的酸雾</t>
-  </si>
-  <si>
-    <t>更换战术装备，按钮图标不会变 | 切换武器栏设置的tab键，但是无法并不能打开武器栏，而是打开投掷物配置栏 | 武器栏改回去</t>
-  </si>
-  <si>
-    <t>酒店周本这个电梯是透明的。，可以再稍微优化一下。 | 哦，不对，这个万国酒店坐电梯的时候，不论是去哪个楼层走哪里都是电梯地板和墙壁有时候会透明 | 在打万国酒店的时候，坐电梯从2楼到3楼厨房的时候，电梯的地板会透明，建议调整</t>
-  </si>
-  <si>
-    <t>在阴天没有太阳的情况下居然还显示出影子，不合逻辑 | 路灯下面没有影子 | 在路灯下没有显示出影子，而且灯的亮度太低了</t>
-  </si>
-  <si>
-    <t>心跳禁区一堆建筑全都卡身位，用流量都加载不出来建筑一直卡身位 | 迷失乐园打完坐飞机走，卡在飞机上了，然后卡在飞机上了，又卡回副本里，然后又闪现出来外面副本门口了 | 这个位置人物从市中心出来就在这卡住了，动一下就闪回来</t>
-  </si>
-  <si>
-    <t>打本也卡住进不去 | 打本好卡 | 打完黑珍珠开不了别的本在里面卡的要死</t>
-  </si>
-  <si>
-    <t>明显的掉帧严重 | 游戏有明显掉帧，玩多了会头晕，正式服玩多久都不晕 | 登录游戏后偶尔会出现显示异常，场景昏暗无灯光</t>
-  </si>
-  <si>
-    <t>动态壁纸会变成红绿色格子，如静雪壁纸 | 同样等级的墙体，窗户与壁纸，显示效果不一， | 静雪密林系列壁纸，图像成马赛克</t>
-  </si>
-  <si>
-    <t>在农田里种植草莓提醒需要再已开垦的土地种植？ | 纯净草莓苗种不了 | 移栽的作物无法种回地里</t>
-  </si>
-  <si>
-    <t>PC端绝命赏单红水湖场景全白，完全无视野 | 赏单红水湖远景全是白色一片，返回营地后营地曝光了，然后到其他地图也是曝光一片 | 赏单红水湖进去一片白茫茫</t>
-  </si>
-  <si>
-    <t>图片与显示的动物不符合，且数量也不一样 | 繁育的动物贴图跟名字显示错误 | 哈提贴图错误</t>
-  </si>
-  <si>
-    <t>蓝潮颜色有问题，不同角度去看会出现黑色和蓝色 | 蓝潮颜色贴图问题，不同角度会显示不同颜色，在蓝色黑色和蓝色黑色之间切换 | 贴图颜色错误，全白了</t>
-  </si>
-  <si>
-    <t>手机机型iqooneo10一直闪退，优化还要加强 | 跑动过程中画面突然变绿.并且不能进行任何操作 | 进入外观界面时会闪屏，由于是动态发生暂时无法提供截图</t>
-  </si>
-  <si>
-    <t>玩家也不显示，就显示一个头，都看不见人 | NPC椅子缺失 | NPC没有显示出全貌，只剩下一个头</t>
-  </si>
-  <si>
-    <t>拿到钥匙要开门的时候门的贴图没有显示出来 | 这是什么门呀怎么按都按不开，那需要输密码吗 | 这个可以改一下改成那种互动可以打开门的那种</t>
-  </si>
-  <si>
-    <t>不能砍树 | 砍树时图标不切换 | 大河区等不明打完有些树木没有办法交互砍树</t>
-  </si>
-  <si>
-    <t>哈提没有交互 任务做不了 | 深潜之行哈提没有交互按钮 | 任务显示和哈提汇合，但是到任务地点后没法进行下一步任务</t>
-  </si>
-  <si>
-    <t>这个问题还是无法修复吗？ | 切个后台回来就这样了，麻烦修一下 | 这个怎么办</t>
-  </si>
-  <si>
-    <t>你吓到我啦，你们知不知道 | 什么鬼？ | 我想知道这是什么个品种，人不像人鬼不像鬼的</t>
-  </si>
-  <si>
-    <t>你吓到我啦，你们知不知道 | 我想知道这是什么个品种，人不像人鬼不像鬼的</t>
-  </si>
-  <si>
-    <t>家具悬空是什么鬼呀 | 可以优化一下家具吗？我的猫没有眼睛了。，它的毛发也太光滑了吧。跟没有毛一样。 | 露天电影家具坐下后起不来了，可以用武器技能。。。</t>
-  </si>
-  <si>
-    <t>花车转视角会隐身 | 骑摩托车开阴影的话有时候人物会消失 | 下午打傀儡迷途的时候这个车前面走一段路，停下后后面的车才走，然后停下前面走，一共持续了7分钟半才到终点</t>
-  </si>
-  <si>
-    <t>站在营地雕像附近这个草上会站不稳，出现循环下落的情况 | 营地雕像腿卡在里面不美观 | 营地雕塑的草走进去会反复弹</t>
-  </si>
-  <si>
-    <t>没有寂海沉舟副本 | 寂海沉舟这个本是不是被删了呀哈哈哈，测试让我们去，没这个本啊 | 寂海沉舟这个副本找不到啊</t>
-  </si>
-  <si>
-    <t>建议副本增加耐久减免选项，对于配置低的人来说没有耐久减免打一次副本要消耗大量耐久，得不偿失 | 副本没有耐久减免，使用装备直接掉耐久， | 副本耐久掉的太快</t>
-  </si>
-  <si>
-    <t>墨洛维城堡副本公主墓室的门模型变白 | 墨洛维城堡二阶段boss铁门集合点的门显示异常 | 墨洛维城堡的副本第一个小boss这里的门是白色的，有问题</t>
+    <t>显示异常 | 显示bug</t>
+  </si>
+  <si>
+    <t>测试服好黑啊画质 | 都开最高画质了人物怎么这么黑</t>
+  </si>
+  <si>
+    <t>这联盟讨伐本地跟水也太黑了吧！尤其是打最后一个怪这个画面一阵全黑一阵全白就跟闪光弹一样晃眼睛，怪消失完后，反击压根看不见反击的点在哪里！这也太影响打本了，还有就是我145级打这个85联盟讨伐都打的够呛！耐久直接掉了3分之2啊！ | 联盟里的这个怪是卡原地不会冲过来的，还有就是有的时候能用喷气背包，以及副本的水黑黑的，整个画质都黑的</t>
   </si>
   <si>
     <t>黑珍珠城堡副本太黑了，陷阱多影响游戏体验，建议调亮 | 黑珍珠城堡副本亮度过低，伤害眼睛 | 黑珍珠城堡整个副本场景太黑，鬼新娘直接跟环境融为一体了根本看不到，追逐的时候打怪没反应那怪照样跑，打最后boos卡的要死振刀键按不了打一梭子没伤害只有怪打了我我才对他有伤害</t>
   </si>
   <si>
+    <t>开了高清画质的情况下游戏是这样的，是没加载出来吗还是什么情况，操作没有啥不流畅的不是配置的问题吧 | 高清画质极致帧率不流畅感觉很不舒服</t>
+  </si>
+  <si>
+    <t>在地图显示不出人物的影子，只能看个模糊，旁边的狗影子就很正常 | 白天的光影太黑了，还会出现阴影一直跟着角色跑，周边没有建筑树木山什么的角色头上还是大片阴影</t>
+  </si>
+  <si>
+    <t>左上角这个可以切换吗？ | 操作设置-主界面操作设置经典  切换不了</t>
+  </si>
+  <si>
     <t>队友在营地开不了副本 | 副本打不开 | 尼玛卡的副本都打不开</t>
   </si>
   <si>
+    <t>周本墨洛维城堡，在楼梯二楼救完npc拾取门框后，没有放置修门的交互按钮，导致副本无法继续 | 副本：墨洛维城堡：任务：将防守插板安装在门框上时无法安装，原因为：为弹出互动窗口。必现：复现方式：进行任务</t>
+  </si>
+  <si>
+    <t>副本场景地图崩坏 | 副本画面显示看不清楚</t>
+  </si>
+  <si>
+    <t>振刀按钮没有颜色变化，在需要振刀的时候看不清 | 有时候振刀，振到了显示失效</t>
+  </si>
+  <si>
+    <t>建议车队内的积分抽奖奖池该更新一下了，积分都溢出好几万 | 建议把车队成员人数增加，好多想一起玩的小伙伴没办法待在一起做车队悬赏</t>
+  </si>
+  <si>
+    <t>新版操作界面太繁琐还是换回旧版吧 | 选择旧版的排版还是会出现新版</t>
+  </si>
+  <si>
+    <t>还有界面天气总是一会黑一会暗，一会白天一会黑夜 | 夜晚的环境光有问题，四周全黑，暗部死黑，白天有通天亮</t>
+  </si>
+  <si>
+    <t>迷失乐园小黄鸭到终点之后任务无法继续进行 | 迷失乐园无法通关船翻了做不了任务</t>
+  </si>
+  <si>
+    <t>万国酒店副本内部严重卡顿，伤害打不出来 | 出现万国酒店副本无法开启的情况（反复显示操作频繁）</t>
+  </si>
+  <si>
+    <t>哈提衣服颜色异常 | 衣服色彩异常</t>
+  </si>
+  <si>
+    <t>希望提升荧光棒亮度，在天黑的时候荧光棒的亮度太低了 | 荧光棒亮度忽明忽暗，光线很奇怪</t>
+  </si>
+  <si>
+    <t>捏脸bug   面部黑斑 | 捏脸后面部是黑色</t>
+  </si>
+  <si>
+    <t>白天黑夜变化过度，也容易曝光 | 白天光线没有明暗之分，就是纯白亮</t>
+  </si>
+  <si>
     <t>副本打完无法正常退出，每个本都是，退出直接闪退 | 无法退出副本 | 打完副本想退出副本点击退出后等了好长时间才退出去</t>
   </si>
   <si>
-    <t>在禁区尸潮区域，放置建造类激光塔时，激光塔不显示。 | 秘密工厂因为符师无法开盾牌，无法通过水柱冲击。</t>
-  </si>
-  <si>
-    <t>轮盘切枪的轮盘设置缩小之后退出还是会变大 | 为啥把轮盘切枪下了，感觉挺好的呀</t>
-  </si>
-  <si>
-    <t>振刀按钮没有颜色变化，在需要振刀的时候看不清 | 有时候振刀，振到了显示失效</t>
-  </si>
-  <si>
-    <t>拉火刀，开枪声音丢失，一点声音都没 | 火刀开了之后一直停不下来，切枪延迟太大</t>
-  </si>
-  <si>
-    <t>测试服好黑啊画质 | 都开最高画质了人物怎么这么黑</t>
-  </si>
-  <si>
-    <t>在地图显示不出人物的影子，只能看个模糊，旁边的狗影子就很正常 | 白天的光影太黑了，还会出现阴影一直跟着角色跑，周边没有建筑树木山什么的角色头上还是大片阴影</t>
-  </si>
-  <si>
-    <t>希望提升荧光棒亮度，在天黑的时候荧光棒的亮度太低了 | 荧光棒亮度忽明忽暗，光线很奇怪</t>
-  </si>
-  <si>
-    <t>还有界面天气总是一会黑一会暗，一会白天一会黑夜 | 夜晚的环境光有问题，四周全黑，暗部死黑，白天有通天亮</t>
-  </si>
-  <si>
-    <t>白天黑夜变化过度，也容易曝光 | 白天光线没有明暗之分，就是纯白亮</t>
-  </si>
-  <si>
-    <t>666水变成方块水了，这bug啥时候修，而且那个小黄鸭的船一直在原地打转，不往前走，拖慢打本进度 | 这连怪都打不了都不扣血了这难道不是bug吗</t>
-  </si>
-  <si>
-    <t>在禁区做任务开箱子 直接卡成火彩人还是荧光的 画面一片漆黑什么也看不见 | 来交小灯任务就一直卡在这里了</t>
+    <t>Bug反馈这里无法上传图片，仅文字反馈是否有效？ | Bug反馈上传图片最多9张，但是我上传2的时候只显示1张</t>
   </si>
   <si>
     <t>邮件卡顿 | 邮箱卡顿</t>
   </si>
   <si>
-    <t>这联盟讨伐本地跟水也太黑了吧！尤其是打最后一个怪这个画面一阵全黑一阵全白就跟闪光弹一样晃眼睛，怪消失完后，反击压根看不见反击的点在哪里！这也太影响打本了，还有就是我145级打这个85联盟讨伐都打的够呛！耐久直接掉了3分之2啊！ | 联盟里的这个怪是卡原地不会冲过来的，还有就是有的时候能用喷气背包，以及副本的水黑黑的，整个画质都黑的</t>
-  </si>
-  <si>
-    <t>开了高清画质的情况下游戏是这样的，是没加载出来吗还是什么情况，操作没有啥不流畅的不是配置的问题吧 | 高清画质极致帧率不流畅感觉很不舒服</t>
-  </si>
-  <si>
-    <t>此处场景未渲染成功，出现了一块绿色的斑，可以随着人物的走动而转变方向。 | 天空颜色异常。围着附近形成一个圆形。的绿色阴影</t>
-  </si>
-  <si>
-    <t>画质为极质模式下，有概率会碰到如图所示的状况。 | 高清画质无论哪个画质，营地喷泉的水，是没有的。</t>
-  </si>
-  <si>
-    <t>营地无法基建 | 营地雕像绿化带颜色异常</t>
-  </si>
-  <si>
-    <t>哈提衣服颜色异常 | 衣服色彩异常</t>
-  </si>
-  <si>
-    <t>典藏时装星途奇想bug，衣服颜色混乱 | 时装显示错误</t>
-  </si>
-  <si>
-    <t>Bug反馈这里无法上传图片，仅文字反馈是否有效？ | Bug反馈上传图片最多9张，但是我上传2的时候只显示1张</t>
-  </si>
-  <si>
-    <t>交易之城核心筛选，筛选完以后显示不正确 | 这个交易箱子错位是我的问题嘛</t>
-  </si>
-  <si>
-    <t>酒店拿道具的尸体卡在里面拿不到 | 万国酒店医生被压拿不到血清触发不了boss</t>
-  </si>
-  <si>
-    <t>建议车队内的积分抽奖奖池该更新一下了，积分都溢出好几万 | 建议把车队成员人数增加，好多想一起玩的小伙伴没办法待在一起做车队悬赏</t>
-  </si>
-  <si>
-    <t>建议增加畜牧圈的等级 扩大畜牧圈容量 或者增多可摆放数量 | 建议更高级的地图增加可采集的作物，目前出来的作物都是在6级地图以下的</t>
-  </si>
-  <si>
-    <t>希望能保留我的测试资格，这轮任务一个都做不了了 | 希望一些特殊模式可以对测试服开放给玩家提供寻找建议跟做任务的空间</t>
-  </si>
-  <si>
-    <t>车队任务做完了，一直显示还有没做完的，地图上小点 | 赏单地图任务面板没有路线指引找不到npc，任务面板新任务刷新延迟</t>
-  </si>
-  <si>
-    <t>迷失乐园小黄鸭到终点之后任务无法继续进行 | 迷失乐园无法通关船翻了做不了任务</t>
-  </si>
-  <si>
-    <t>无法发送信息 | 语音聊天失效，无法听取</t>
-  </si>
-  <si>
-    <t>左上角这个可以切换吗？ | 操作设置-主界面操作设置经典  切换不了</t>
-  </si>
-  <si>
-    <t>显示异常 | 显示bug</t>
-  </si>
-  <si>
-    <t>新版操作界面太繁琐还是换回旧版吧 | 选择旧版的排版还是会出现新版</t>
-  </si>
-  <si>
-    <t>时装萌兔神探bug，角色穿上时装不显示，全身透明 | 星际舰长这套时装有异常发光点，转动角度就会出现更多</t>
-  </si>
-  <si>
-    <t>门隐形 | 玻璃门</t>
-  </si>
-  <si>
-    <t>密斯卡大学 两边没有东西遮挡也过不去  密斯卡大学：最后小女孩npc从二楼直接漂移到一楼 | 密斯卡大学的围墙的柱子全部消失，但碰撞体积还在</t>
-  </si>
-  <si>
-    <t>黑珍珠区的悬空萝卜，不合理 | 这个草是不是有点不合常理了</t>
-  </si>
-  <si>
-    <t>冰渊典藏裙摆太僵硬 | 仙履奇谭典藏裙摆贴腿了，改回原来蓬蓬的样子，贴腿好丑</t>
-  </si>
-  <si>
-    <t>联盟副本没有减免 | 联盟行动希望测试服里面自选副本地图做满任务</t>
-  </si>
-  <si>
-    <t>迷失乐园副本中，船翻了导致无法通关。 | 迷失乐园讨伐，鸭子船会自己原地转圈！打完副本后，飞机交通堵塞，得等几分钟才出副本</t>
-  </si>
-  <si>
     <t>水下工厂副本的剧情缺失。 | 水下工厂副本的剧情缺失。</t>
   </si>
   <si>
     <t>水下工厂副本无法访问。 | 水下工厂副本无法访问。</t>
-  </si>
-  <si>
-    <t>周本墨洛维城堡，在楼梯二楼救完npc拾取门框后，没有放置修门的交互按钮，导致副本无法继续 | 副本：墨洛维城堡：任务：将防守插板安装在门框上时无法安装，原因为：为弹出互动窗口。必现：复现方式：进行任务</t>
-  </si>
-  <si>
-    <t>副本场景地图崩坏 | 副本画面显示看不清楚</t>
-  </si>
-  <si>
-    <t>万国酒店副本内部严重卡顿，伤害打不出来 | 出现万国酒店副本无法开启的情况（反复显示操作频繁）</t>
-  </si>
-  <si>
-    <t>捏脸bug   面部黑斑 | 捏脸后面部是黑色</t>
   </si>
   <si>
     <t>cluster_id</t>
@@ -3040,7 +3040,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3051,13 +3051,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3525,28 +3518,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3555,118 +3551,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4023,7 +4016,7 @@
   <sheetPr/>
   <dimension ref="A1:D416"/>
   <sheetViews>
-    <sheetView topLeftCell="A270" workbookViewId="0">
+    <sheetView topLeftCell="A324" workbookViewId="0">
       <selection activeCell="B291" sqref="B291"/>
     </sheetView>
   </sheetViews>
@@ -9867,7 +9860,7 @@
   <sheetPr/>
   <dimension ref="A1:D417"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -15716,8 +15709,8 @@
   <sheetPr/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="C59" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -15771,602 +15764,602 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0.9388</v>
+        <v>0.9053</v>
       </c>
       <c r="D3" t="s">
-        <v>452</v>
+        <v>606</v>
       </c>
       <c r="E3" t="s">
         <v>684</v>
       </c>
       <c r="F3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>0.9086</v>
+        <v>0.9068</v>
       </c>
       <c r="D4" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="E4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>0.9053</v>
+        <v>0.9086</v>
       </c>
       <c r="D5" t="s">
-        <v>606</v>
+        <v>653</v>
       </c>
       <c r="E5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>0.9334</v>
+        <v>0.9086</v>
       </c>
       <c r="D6" t="s">
-        <v>437</v>
+        <v>551</v>
       </c>
       <c r="E6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F6" t="s">
-        <v>437</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9237</v>
+        <v>0.9089</v>
       </c>
       <c r="D7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="E7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9403</v>
+        <v>0.9123</v>
       </c>
       <c r="D8" t="s">
-        <v>528</v>
+        <v>643</v>
       </c>
       <c r="E8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F8" t="s">
-        <v>528</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0.9068</v>
+        <v>0.9129</v>
       </c>
       <c r="D9" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="E9" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>0.9123</v>
+        <v>0.917</v>
       </c>
       <c r="D10" t="s">
-        <v>643</v>
+        <v>472</v>
       </c>
       <c r="E10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.941</v>
+        <v>0.9206</v>
       </c>
       <c r="D11" t="s">
-        <v>637</v>
+        <v>562</v>
       </c>
       <c r="E11" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F11" t="s">
-        <v>637</v>
+        <v>697</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.9524</v>
+        <v>0.922</v>
       </c>
       <c r="D12" t="s">
-        <v>416</v>
+        <v>481</v>
       </c>
       <c r="E12" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F12" t="s">
-        <v>416</v>
+        <v>698</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>0.9086</v>
+        <v>0.9237</v>
       </c>
       <c r="D13" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="E13" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F13" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>0.9089</v>
+        <v>0.9256</v>
       </c>
       <c r="D14" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="E14" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F14" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>0.936</v>
+        <v>0.926</v>
       </c>
       <c r="D15" t="s">
-        <v>493</v>
+        <v>634</v>
       </c>
       <c r="E15" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F15" t="s">
-        <v>493</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>0.926</v>
+        <v>0.9279</v>
       </c>
       <c r="D16" t="s">
-        <v>634</v>
+        <v>573</v>
       </c>
       <c r="E16" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F16" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>0.9517</v>
+        <v>0.9294</v>
       </c>
       <c r="D17" t="s">
-        <v>558</v>
+        <v>441</v>
       </c>
       <c r="E17" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F17" t="s">
-        <v>558</v>
+        <v>706</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>0.917</v>
+        <v>0.9305</v>
       </c>
       <c r="D18" t="s">
-        <v>472</v>
+        <v>510</v>
       </c>
       <c r="E18" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F18" t="s">
-        <v>705</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
+        <v>59</v>
+      </c>
+      <c r="B19">
         <v>3</v>
       </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
       <c r="C19">
-        <v>0.9395</v>
+        <v>0.931</v>
       </c>
       <c r="D19" t="s">
-        <v>395</v>
+        <v>505</v>
       </c>
       <c r="E19" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F19" t="s">
-        <v>395</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>0.9407</v>
+        <v>0.9334</v>
       </c>
       <c r="D20" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="E20" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F20" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.9609</v>
+        <v>0.936</v>
       </c>
       <c r="D21" t="s">
-        <v>419</v>
+        <v>493</v>
       </c>
       <c r="E21" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F21" t="s">
-        <v>419</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>0.9387</v>
+        <v>0.9384</v>
       </c>
       <c r="D22" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="E22" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F22" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23">
-        <v>0.9631</v>
+        <v>0.9387</v>
       </c>
       <c r="D23" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E23" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F23" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>0.9592</v>
+        <v>0.9388</v>
       </c>
       <c r="D24" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="E24" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F24" t="s">
-        <v>421</v>
+        <v>713</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25">
-        <v>0.922</v>
+        <v>0.9395</v>
       </c>
       <c r="D25" t="s">
-        <v>481</v>
+        <v>395</v>
       </c>
       <c r="E25" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F25" t="s">
-        <v>712</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>0.9305</v>
+        <v>0.94</v>
       </c>
       <c r="D26" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E26" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F26" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>0.9129</v>
+        <v>0.9403</v>
       </c>
       <c r="D27" t="s">
-        <v>648</v>
+        <v>528</v>
       </c>
       <c r="E27" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F27" t="s">
-        <v>715</v>
+        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
       <c r="C28">
-        <v>0.9575</v>
+        <v>0.9407</v>
       </c>
       <c r="D28" t="s">
-        <v>623</v>
+        <v>403</v>
       </c>
       <c r="E28" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F28" t="s">
-        <v>623</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>0.9294</v>
+        <v>0.9407</v>
       </c>
       <c r="D29" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="E29" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F29" t="s">
-        <v>717</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>0.9483</v>
+        <v>0.941</v>
       </c>
       <c r="D30" t="s">
-        <v>401</v>
+        <v>637</v>
       </c>
       <c r="E30" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F30" t="s">
-        <v>401</v>
+        <v>637</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>0.9627</v>
+        <v>0.9423</v>
       </c>
       <c r="D31" t="s">
-        <v>404</v>
+        <v>521</v>
       </c>
       <c r="E31" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F31" t="s">
-        <v>404</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>0.9546</v>
+        <v>0.9432</v>
       </c>
       <c r="D32" t="s">
-        <v>409</v>
+        <v>541</v>
       </c>
       <c r="E32" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F32" t="s">
-        <v>409</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -16383,7 +16376,7 @@
         <v>426</v>
       </c>
       <c r="E33" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F33" t="s">
         <v>426</v>
@@ -16391,1345 +16384,1348 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>0.9578</v>
+        <v>0.9449</v>
       </c>
       <c r="D34" t="s">
-        <v>435</v>
+        <v>555</v>
       </c>
       <c r="E34" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F34" t="s">
-        <v>435</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>0.9547</v>
+        <v>0.9453</v>
       </c>
       <c r="D35" t="s">
-        <v>436</v>
+        <v>508</v>
       </c>
       <c r="E35" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F35" t="s">
-        <v>436</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>0.9384</v>
+        <v>0.9477</v>
       </c>
       <c r="D36" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="E36" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F36" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>0.9482</v>
+        <v>0.948</v>
       </c>
       <c r="D37" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="E37" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F37" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>0.9519</v>
+        <v>0.9482</v>
       </c>
       <c r="D38" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E38" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F38" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>0.9407</v>
+        <v>0.9483</v>
       </c>
       <c r="D39" t="s">
-        <v>495</v>
+        <v>401</v>
       </c>
       <c r="E39" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F39" t="s">
-        <v>495</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>0.9538</v>
+        <v>0.9498</v>
       </c>
       <c r="D40" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E40" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F40" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>0.931</v>
+        <v>0.9503</v>
       </c>
       <c r="D41" t="s">
-        <v>505</v>
+        <v>543</v>
       </c>
       <c r="E41" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F41" t="s">
-        <v>505</v>
+        <v>543</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>0.94</v>
+        <v>0.9517</v>
       </c>
       <c r="D42" t="s">
-        <v>507</v>
+        <v>558</v>
       </c>
       <c r="E42" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F42" t="s">
-        <v>507</v>
+        <v>558</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>0.9453</v>
+        <v>0.9518</v>
       </c>
       <c r="D43" t="s">
-        <v>508</v>
+        <v>397</v>
       </c>
       <c r="E43" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F43" t="s">
-        <v>508</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>0.9477</v>
+        <v>0.9519</v>
       </c>
       <c r="D44" t="s">
-        <v>515</v>
+        <v>465</v>
       </c>
       <c r="E44" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F44" t="s">
-        <v>515</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>0.956</v>
+        <v>0.9519</v>
       </c>
       <c r="D45" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="E45" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F45" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>0.9423</v>
+        <v>0.952</v>
       </c>
       <c r="D46" t="s">
-        <v>521</v>
+        <v>612</v>
       </c>
       <c r="E46" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F46" t="s">
-        <v>521</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>0.9256</v>
+        <v>0.9521</v>
       </c>
       <c r="D47" t="s">
-        <v>568</v>
+        <v>468</v>
       </c>
       <c r="E47" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F47" t="s">
-        <v>736</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>0.9206</v>
+        <v>0.9523</v>
       </c>
       <c r="D48" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="E48" t="s">
         <v>737</v>
       </c>
       <c r="F48" t="s">
-        <v>737</v>
+        <v>598</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>0.9279</v>
+        <v>0.9524</v>
       </c>
       <c r="D49" t="s">
-        <v>573</v>
+        <v>416</v>
       </c>
       <c r="E49" t="s">
         <v>738</v>
       </c>
       <c r="F49" t="s">
-        <v>738</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>0.9523</v>
+        <v>0.9536</v>
       </c>
       <c r="D50" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
       <c r="E50" t="s">
         <v>739</v>
       </c>
       <c r="F50" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>0.952</v>
+        <v>0.9538</v>
       </c>
       <c r="D51" t="s">
-        <v>612</v>
+        <v>497</v>
       </c>
       <c r="E51" t="s">
         <v>740</v>
       </c>
       <c r="F51" t="s">
-        <v>612</v>
+        <v>497</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>0.9619</v>
+        <v>0.9538</v>
       </c>
       <c r="D52" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="E52" t="s">
         <v>741</v>
       </c>
       <c r="F52" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>0.9541</v>
+        <v>0.9539</v>
       </c>
       <c r="D53" t="s">
-        <v>619</v>
+        <v>466</v>
       </c>
       <c r="E53" t="s">
         <v>742</v>
       </c>
       <c r="F53" t="s">
-        <v>619</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54">
-        <v>0.9644</v>
+        <v>0.9541</v>
       </c>
       <c r="D54" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E54" t="s">
         <v>743</v>
       </c>
       <c r="F54" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55">
-        <v>0.9667</v>
+        <v>0.9546</v>
       </c>
       <c r="D55" t="s">
-        <v>626</v>
+        <v>409</v>
       </c>
       <c r="E55" t="s">
         <v>744</v>
       </c>
       <c r="F55" t="s">
-        <v>626</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56">
-        <v>0.9764</v>
+        <v>0.9547</v>
       </c>
       <c r="D56" t="s">
-        <v>628</v>
+        <v>436</v>
       </c>
       <c r="E56" t="s">
         <v>745</v>
       </c>
       <c r="F56" t="s">
-        <v>628</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
       <c r="C57">
-        <v>0.9518</v>
+        <v>0.9555</v>
       </c>
       <c r="D57" t="s">
-        <v>397</v>
+        <v>485</v>
       </c>
       <c r="E57" t="s">
         <v>746</v>
       </c>
       <c r="F57" t="s">
-        <v>397</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>0.9597</v>
+        <v>0.956</v>
       </c>
       <c r="D58" t="s">
-        <v>394</v>
+        <v>519</v>
       </c>
       <c r="E58" t="s">
         <v>747</v>
       </c>
       <c r="F58" t="s">
-        <v>394</v>
+        <v>519</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59">
-        <v>0.968</v>
+        <v>0.9568</v>
       </c>
       <c r="D59" t="s">
-        <v>399</v>
+        <v>506</v>
       </c>
       <c r="E59" t="s">
         <v>748</v>
       </c>
       <c r="F59" t="s">
-        <v>399</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>0.963</v>
+        <v>0.9575</v>
       </c>
       <c r="D60" t="s">
-        <v>400</v>
+        <v>623</v>
       </c>
       <c r="E60" t="s">
         <v>749</v>
       </c>
       <c r="F60" t="s">
-        <v>400</v>
+        <v>623</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>0.964</v>
+        <v>0.9578</v>
       </c>
       <c r="D61" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E61" t="s">
         <v>750</v>
       </c>
       <c r="F61" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C62">
-        <v>0.9651</v>
+        <v>0.9592</v>
       </c>
       <c r="D62" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="E62" t="s">
         <v>751</v>
       </c>
       <c r="F62" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
       <c r="C63">
-        <v>0.9747</v>
+        <v>0.9592</v>
       </c>
       <c r="D63" t="s">
-        <v>411</v>
+        <v>489</v>
       </c>
       <c r="E63" t="s">
         <v>752</v>
       </c>
       <c r="F63" t="s">
-        <v>411</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64">
-        <v>0.9706</v>
+        <v>0.9593</v>
       </c>
       <c r="D64" t="s">
-        <v>413</v>
+        <v>504</v>
       </c>
       <c r="E64" t="s">
         <v>753</v>
       </c>
       <c r="F64" t="s">
-        <v>413</v>
+        <v>504</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
       <c r="C65">
-        <v>0.9752</v>
+        <v>0.9597</v>
       </c>
       <c r="D65" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="E65" t="s">
         <v>754</v>
       </c>
       <c r="F65" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66">
-        <v>0.9609</v>
+        <v>0.9599</v>
       </c>
       <c r="D66" t="s">
-        <v>422</v>
+        <v>511</v>
       </c>
       <c r="E66" t="s">
         <v>755</v>
       </c>
       <c r="F66" t="s">
-        <v>422</v>
+        <v>511</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>0.9612</v>
+        <v>0.9609</v>
       </c>
       <c r="D67" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E67" t="s">
         <v>756</v>
       </c>
       <c r="F67" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B68">
         <v>2</v>
       </c>
       <c r="C68">
-        <v>0.995</v>
+        <v>0.9609</v>
       </c>
       <c r="D68" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E68" t="s">
         <v>757</v>
       </c>
       <c r="F68" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69">
-        <v>0.9642</v>
+        <v>0.9612</v>
       </c>
       <c r="D69" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E69" t="s">
         <v>758</v>
       </c>
       <c r="F69" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>0.9645</v>
+        <v>0.9619</v>
       </c>
       <c r="D70" t="s">
-        <v>431</v>
+        <v>615</v>
       </c>
       <c r="E70" t="s">
         <v>759</v>
       </c>
       <c r="F70" t="s">
-        <v>431</v>
+        <v>615</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>0.9539</v>
+        <v>0.9627</v>
       </c>
       <c r="D71" t="s">
-        <v>466</v>
+        <v>404</v>
       </c>
       <c r="E71" t="s">
         <v>760</v>
       </c>
       <c r="F71" t="s">
-        <v>466</v>
+        <v>404</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
       <c r="C72">
-        <v>0.9521</v>
+        <v>0.9629</v>
       </c>
       <c r="D72" t="s">
-        <v>468</v>
+        <v>610</v>
       </c>
       <c r="E72" t="s">
         <v>761</v>
       </c>
       <c r="F72" t="s">
-        <v>468</v>
+        <v>610</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
       <c r="C73">
-        <v>0.9555</v>
+        <v>0.963</v>
       </c>
       <c r="D73" t="s">
-        <v>485</v>
+        <v>400</v>
       </c>
       <c r="E73" t="s">
         <v>762</v>
       </c>
       <c r="F73" t="s">
-        <v>485</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
       <c r="C74">
-        <v>0.9738</v>
+        <v>0.963</v>
       </c>
       <c r="D74" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="E74" t="s">
         <v>763</v>
       </c>
       <c r="F74" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>0.9592</v>
+        <v>0.9631</v>
       </c>
       <c r="D75" t="s">
-        <v>489</v>
+        <v>415</v>
       </c>
       <c r="E75" t="s">
         <v>764</v>
       </c>
       <c r="F75" t="s">
-        <v>489</v>
+        <v>415</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
       <c r="C76">
-        <v>0.9783</v>
+        <v>0.9639</v>
       </c>
       <c r="D76" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="E76" t="s">
         <v>765</v>
       </c>
       <c r="F76" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
       <c r="C77">
-        <v>0.948</v>
+        <v>0.964</v>
       </c>
       <c r="D77" t="s">
-        <v>499</v>
+        <v>433</v>
       </c>
       <c r="E77" t="s">
         <v>766</v>
       </c>
       <c r="F77" t="s">
-        <v>499</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
       <c r="C78">
-        <v>0.9498</v>
+        <v>0.9642</v>
       </c>
       <c r="D78" t="s">
-        <v>501</v>
+        <v>429</v>
       </c>
       <c r="E78" t="s">
         <v>767</v>
       </c>
       <c r="F78" t="s">
-        <v>501</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>0.9687</v>
+        <v>0.9644</v>
       </c>
       <c r="D79" t="s">
-        <v>503</v>
+        <v>624</v>
       </c>
       <c r="E79" t="s">
         <v>768</v>
       </c>
       <c r="F79" t="s">
-        <v>503</v>
+        <v>624</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
       <c r="C80">
-        <v>0.9593</v>
+        <v>0.9645</v>
       </c>
       <c r="D80" t="s">
-        <v>504</v>
+        <v>431</v>
       </c>
       <c r="E80" t="s">
         <v>769</v>
       </c>
       <c r="F80" t="s">
-        <v>504</v>
+        <v>431</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
       <c r="C81">
-        <v>0.9568</v>
+        <v>0.9651</v>
       </c>
       <c r="D81" t="s">
-        <v>506</v>
+        <v>405</v>
       </c>
       <c r="E81" t="s">
         <v>770</v>
       </c>
       <c r="F81" t="s">
-        <v>506</v>
+        <v>405</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B82">
         <v>2</v>
       </c>
       <c r="C82">
-        <v>0.9599</v>
+        <v>0.9664</v>
       </c>
       <c r="D82" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="E82" t="s">
         <v>771</v>
       </c>
       <c r="F82" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>0.9726</v>
+        <v>0.9667</v>
       </c>
       <c r="D83" t="s">
-        <v>513</v>
+        <v>626</v>
       </c>
       <c r="E83" t="s">
         <v>772</v>
       </c>
       <c r="F83" t="s">
-        <v>513</v>
+        <v>626</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84">
-        <v>0.963</v>
+        <v>0.9674</v>
       </c>
       <c r="D84" t="s">
-        <v>523</v>
+        <v>617</v>
       </c>
       <c r="E84" t="s">
         <v>773</v>
       </c>
       <c r="F84" t="s">
-        <v>523</v>
+        <v>617</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
       <c r="C85">
-        <v>0.9664</v>
+        <v>0.9677</v>
       </c>
       <c r="D85" t="s">
-        <v>525</v>
+        <v>621</v>
       </c>
       <c r="E85" t="s">
         <v>774</v>
       </c>
       <c r="F85" t="s">
-        <v>525</v>
+        <v>621</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
       <c r="C86">
-        <v>0.9639</v>
+        <v>0.968</v>
       </c>
       <c r="D86" t="s">
-        <v>526</v>
+        <v>399</v>
       </c>
       <c r="E86" t="s">
         <v>775</v>
       </c>
       <c r="F86" t="s">
-        <v>526</v>
+        <v>399</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B87">
         <v>2</v>
       </c>
       <c r="C87">
-        <v>0.9692</v>
+        <v>0.9687</v>
       </c>
       <c r="D87" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
       <c r="E87" t="s">
         <v>776</v>
       </c>
       <c r="F87" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
       <c r="C88">
-        <v>0.9432</v>
+        <v>0.9692</v>
       </c>
       <c r="D88" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="E88" t="s">
         <v>777</v>
       </c>
       <c r="F88" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
       <c r="C89">
-        <v>0.9503</v>
+        <v>0.9706</v>
       </c>
       <c r="D89" t="s">
-        <v>543</v>
+        <v>413</v>
       </c>
       <c r="E89" t="s">
         <v>778</v>
       </c>
       <c r="F89" t="s">
-        <v>543</v>
+        <v>413</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B90">
         <v>2</v>
       </c>
       <c r="C90">
-        <v>0.9519</v>
+        <v>0.9726</v>
       </c>
       <c r="D90" t="s">
-        <v>553</v>
+        <v>513</v>
       </c>
       <c r="E90" t="s">
         <v>779</v>
       </c>
       <c r="F90" t="s">
-        <v>553</v>
+        <v>513</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B91">
         <v>2</v>
       </c>
       <c r="C91">
-        <v>0.9449</v>
+        <v>0.9735</v>
       </c>
       <c r="D91" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="E91" t="s">
         <v>780</v>
       </c>
       <c r="F91" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="C92">
-        <v>0.9536</v>
+        <v>0.9738</v>
       </c>
       <c r="D92" t="s">
-        <v>557</v>
+        <v>487</v>
       </c>
       <c r="E92" t="s">
         <v>781</v>
       </c>
       <c r="F92" t="s">
-        <v>557</v>
+        <v>487</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
       <c r="C93">
-        <v>0.9538</v>
+        <v>0.9747</v>
       </c>
       <c r="D93" t="s">
-        <v>600</v>
+        <v>411</v>
       </c>
       <c r="E93" t="s">
         <v>782</v>
       </c>
       <c r="F93" t="s">
-        <v>600</v>
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
       <c r="C94">
-        <v>0.9629</v>
+        <v>0.9749</v>
       </c>
       <c r="D94" t="s">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="E94" t="s">
         <v>783</v>
       </c>
       <c r="F94" t="s">
-        <v>610</v>
+        <v>635</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="B95">
         <v>2</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0.9752</v>
       </c>
       <c r="D95" t="s">
-        <v>613</v>
+        <v>418</v>
       </c>
       <c r="E95" t="s">
         <v>784</v>
       </c>
       <c r="F95" t="s">
-        <v>613</v>
+        <v>418</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0.9764</v>
       </c>
       <c r="D96" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="E96" t="s">
         <v>785</v>
       </c>
       <c r="F96" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97">
-        <v>0.9674</v>
+        <v>0.9783</v>
       </c>
       <c r="D97" t="s">
-        <v>617</v>
+        <v>491</v>
       </c>
       <c r="E97" t="s">
         <v>786</v>
       </c>
       <c r="F97" t="s">
-        <v>617</v>
+        <v>491</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
       <c r="C98">
-        <v>0.9677</v>
+        <v>0.995</v>
       </c>
       <c r="D98" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
       <c r="E98" t="s">
         <v>787</v>
       </c>
       <c r="F98" t="s">
-        <v>621</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
       <c r="C99">
-        <v>0.9735</v>
+        <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="E99" t="s">
         <v>788</v>
       </c>
       <c r="F99" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
       <c r="C100">
-        <v>0.9749</v>
+        <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="E100" t="s">
         <v>789</v>
       </c>
       <c r="F100" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F100">
+    <sortCondition ref="C2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
